--- a/Metropolitan Roads/28921/CHK-001-CIV-Stormwater Drainage Pipes installation Rev 2.xlsx
+++ b/Metropolitan Roads/28921/CHK-001-CIV-Stormwater Drainage Pipes installation Rev 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-080-CIV-PSDS-Stormwater Drainage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1971E-CFF9-4BF6-8C9C-3718AAFA5E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765383AB-81FC-4819-B4DB-AB9CA6AA19DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="570" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,6 +1067,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1079,82 +1155,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,8 +1555,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,107 +1579,107 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="53" t="str">
+      <c r="C2" s="79" t="str">
         <f>"CHK-"&amp;C4&amp;"-"&amp;C3</f>
         <v>CHK-CIV-CAMMS-Stormwater Drainage Pipes Installation</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="53">
+      <c r="C5" s="79">
         <v>2</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="55">
+      <c r="C6" s="81">
         <v>45267</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="80"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="53" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="7"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="D12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1693,12 +1693,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1709,12 +1709,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="O14" s="1"/>
@@ -1723,15 +1723,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="O15" s="1"/>
@@ -1757,43 +1757,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="78" t="s">
         <v>25</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1803,10 +1803,10 @@
       <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="64"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="78"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -1814,18 +1814,18 @@
       <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="49">
@@ -1862,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>1.2</v>
       </c>
@@ -1901,20 +1901,20 @@
       <c r="A22" s="22">
         <v>2</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+    </row>
+    <row r="23" spans="1:19" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>38</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:19" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="26" t="s">
         <v>47</v>
@@ -2009,18 +2009,18 @@
       <c r="A26" s="22">
         <v>3</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
     </row>
     <row r="27" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
@@ -2057,20 +2057,20 @@
       <c r="A28" s="22">
         <v>4</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-    </row>
-    <row r="29" spans="1:19" ht="135" x14ac:dyDescent="0.2">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+    </row>
+    <row r="29" spans="1:19" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>55</v>
       </c>
@@ -2105,20 +2105,20 @@
       <c r="A30" s="22">
         <v>5</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-    </row>
-    <row r="31" spans="1:19" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+    </row>
+    <row r="31" spans="1:19" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>5.0999999999999996</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>5.2</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="180" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>5.3</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>5.5</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
     </row>
-    <row r="38" spans="1:11" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>91</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
     </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="1:11" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>107</v>
       </c>
@@ -2494,20 +2494,20 @@
       <c r="A43" s="22">
         <v>6</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-    </row>
-    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+    </row>
+    <row r="44" spans="1:11" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>114</v>
       </c>
@@ -2540,46 +2540,46 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="67"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
@@ -2598,16 +2598,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K47"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B30:K30"/>
@@ -2622,17 +2619,20 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K47"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B26:K26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3075,6 +3075,62 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372384</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372384</Url>
+      <Description>MRPA-1160097302-372384</Description>
+    </_dlc_DocIdUrl>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
+    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3124,62 +3180,6 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372384</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372384</Url>
-      <Description>MRPA-1160097302-372384</Description>
-    </_dlc_DocIdUrl>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
-    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D58A4B-D10E-4A27-AB28-295D041C3C11}">
   <ds:schemaRefs>
@@ -3202,9 +3202,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3218,14 +3223,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>